--- a/datasets/Oreos.xlsx
+++ b/datasets/Oreos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anitaowens/Documents/Marketing Analytics-Data Driven Techniques with Excel/Excel Files/Chapter 10 Excel Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anitaowens/Documents/GitHub/Machine-Learning-R/Machine-Learning-R/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B176F09-BBC8-1E4D-A0FA-C7F311C6C2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0244E26D-28D5-244C-9217-D0312E5AF7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="900" windowWidth="13660" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -377,8 +377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7DA7DD-A6C8-334F-8E37-C3E4EC824079}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -406,8 +406,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f ca="1">40+RANDBETWEEN(-10,10)+IF(B2=5,-10,IF(B2=6,20,0))</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -418,8 +417,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C13" ca="1" si="0">40+RANDBETWEEN(-10,10)+IF(B3=5,-10,IF(B3=6,20,0))</f>
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -430,8 +428,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -442,8 +439,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -454,8 +450,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -466,8 +461,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -478,8 +472,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -490,8 +483,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -502,8 +494,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -514,8 +505,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -526,8 +516,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -538,8 +527,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E3:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6:G18"/>
     </sheetView>
   </sheetViews>
@@ -586,7 +574,7 @@
       </c>
       <c r="G7">
         <f ca="1">40+RANDBETWEEN(-10,10)+IF(F7=5,-10,IF(F7=6,20,0))</f>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.2">
@@ -598,7 +586,7 @@
       </c>
       <c r="G8">
         <f t="shared" ref="G8:G18" ca="1" si="0">40+RANDBETWEEN(-10,10)+IF(F8=5,-10,IF(F8=6,20,0))</f>
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.2">
@@ -610,7 +598,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.2">
@@ -622,7 +610,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.2">
@@ -634,7 +622,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.2">
@@ -646,7 +634,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.2">
@@ -658,7 +646,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.2">
@@ -670,7 +658,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.2">
@@ -694,7 +682,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.2">
@@ -718,7 +706,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
